--- a/results/pvalue_OFFSIDES_all_transporter_AUPR+AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_all_transporter_AUPR+AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6.421</t>
+          <t>6.083</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.826</t>
+          <t>7.289</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.468</t>
+          <t>7.976</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.135</t>
+          <t>4.127</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>26.956</t>
+          <t>25.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
